--- a/Guidewire/TestData/New person data.xlsx
+++ b/Guidewire/TestData/New person data.xlsx
@@ -3,15 +3,19 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9372772A-D3A4-4D3E-B766-2DD69105E73A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\151508\git\Guidewire\Guidewire\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFDAEED-AA13-44AE-904C-E2B1C364FC8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="2850" windowWidth="11520" windowHeight="7875" xr2:uid="{D3F5422E-35DB-4918-9631-71B9FCA56D73}"/>
+    <workbookView xWindow="3840" yWindow="3045" windowWidth="11520" windowHeight="7875" xr2:uid="{D3F5422E-35DB-4918-9631-71B9FCA56D73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -439,8 +443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0229D0E8-3888-4247-9535-3768C8FDAFC3}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Guidewire/TestData/New person data.xlsx
+++ b/Guidewire/TestData/New person data.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\151508\git\Guidewire\Guidewire\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EFDAEED-AA13-44AE-904C-E2B1C364FC8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9F834497-1DD2-49A3-B361-7D49A5172C08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="3045" windowWidth="11520" windowHeight="7875" xr2:uid="{D3F5422E-35DB-4918-9631-71B9FCA56D73}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11550" windowHeight="11340" xr2:uid="{D3F5422E-35DB-4918-9631-71B9FCA56D73}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>Browser</t>
   </si>
@@ -42,9 +38,6 @@
     <t>Edge</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>Actual</t>
   </si>
   <si>
@@ -73,6 +66,12 @@
   </si>
   <si>
     <t>966-26-2992</t>
+  </si>
+  <si>
+    <t>Ust</t>
+  </si>
+  <si>
+    <t>Global</t>
   </si>
 </sst>
 </file>
@@ -444,7 +443,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,16 +462,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
@@ -486,13 +485,13 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -503,13 +502,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -520,13 +519,13 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
